--- a/data/trans_dic/P25C_R2_2023-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P25C_R2_2023-Clase-trans_dic.xlsx
@@ -564,10 +564,10 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>0.005326749897081379</v>
+        <v>0.005326749897081378</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.0445190359961728</v>
+        <v>0.04451903599617278</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>0.01892829965166892</v>
@@ -584,10 +584,10 @@
         <v>0</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.01504704180649568</v>
+        <v>0.01494127690478681</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.006755813903002297</v>
+        <v>0.006789326397591394</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.02412092295500691</v>
+        <v>0.03144663572978278</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.10610923932241</v>
+        <v>0.1080049490678578</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.04324974567866915</v>
+        <v>0.0436756473389775</v>
       </c>
     </row>
     <row r="7">
@@ -622,7 +622,7 @@
         <v>0.006650584591608034</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.05488534503548868</v>
+        <v>0.05488534503548867</v>
       </c>
       <c r="E7" s="5" t="n">
         <v>0.02499878314303629</v>
@@ -639,10 +639,10 @@
         <v>0</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.02113573303262896</v>
+        <v>0.02080486438355625</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.008488981960966299</v>
+        <v>0.008307703464720992</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.0338515326052332</v>
+        <v>0.05635578773491146</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1116350453666038</v>
+        <v>0.1157095500088874</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.0503635945146516</v>
+        <v>0.05456902621215647</v>
       </c>
     </row>
     <row r="10">
@@ -674,10 +674,10 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0.03086859915380032</v>
+        <v>0.03086859915380031</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.02930338297077366</v>
+        <v>0.02930338297077365</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>0.03059054584479774</v>
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.007962508031923197</v>
+        <v>0.007725576443161864</v>
       </c>
       <c r="D11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.01078846431735721</v>
+        <v>0.009990003568423727</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.07482603425103308</v>
+        <v>0.07485661401302077</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.137571782672514</v>
+        <v>0.1557720967731605</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.06726378883513202</v>
+        <v>0.06441317343381861</v>
       </c>
     </row>
     <row r="13">
@@ -729,10 +729,10 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>0.0253494494163318</v>
+        <v>0.02534944941633181</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.02890864570162579</v>
+        <v>0.0289086457016258</v>
       </c>
       <c r="E13" s="5" t="n">
         <v>0.02637272950432853</v>
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.01110292375132984</v>
+        <v>0.01059257577229456</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.007134434988528532</v>
+        <v>0.007262349433883043</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.0141415297086538</v>
+        <v>0.01336675608167106</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.05448943076710153</v>
+        <v>0.05063668608283388</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.0693114568227569</v>
+        <v>0.06741746786323634</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.04666635893222131</v>
+        <v>0.04826615881395397</v>
       </c>
     </row>
     <row r="16">
@@ -784,13 +784,13 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>0.03039778498414053</v>
+        <v>0.03039778498414052</v>
       </c>
       <c r="D16" s="5" t="n">
         <v>0.0547317433562237</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.04155653146452</v>
+        <v>0.04155653146451999</v>
       </c>
     </row>
     <row r="17">
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.007654187603881236</v>
+        <v>0.008454771162625508</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.02340850642420144</v>
+        <v>0.02445819008037011</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.02181707411439257</v>
+        <v>0.02136716277283004</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.07315215788546878</v>
+        <v>0.08177606063531051</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.1067551202015905</v>
+        <v>0.1064283944837067</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.07259338336529413</v>
+        <v>0.07095144721156688</v>
       </c>
     </row>
     <row r="19">
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.01062642805075367</v>
+        <v>0.01080052978264163</v>
       </c>
     </row>
     <row r="21">
@@ -873,13 +873,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.7071995146843909</v>
+        <v>0.7147599439986223</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.06974364072629763</v>
+        <v>0.06661292391535147</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.1286920382732624</v>
+        <v>0.1273459616804506</v>
       </c>
     </row>
     <row r="22">
@@ -911,13 +911,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.01358164243909465</v>
+        <v>0.01390631584339669</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.02544343043547854</v>
+        <v>0.02562264874749839</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.02083324888594613</v>
+        <v>0.02064456311887836</v>
       </c>
     </row>
     <row r="24">
@@ -928,13 +928,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.03400064144173951</v>
+        <v>0.03400544790944347</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.06094050502606229</v>
+        <v>0.05969063335644557</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.03861932177441373</v>
+        <v>0.03851956722875093</v>
       </c>
     </row>
     <row r="25">
@@ -1081,10 +1081,10 @@
         <v>0</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>1045</v>
+        <v>1037</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>1351</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="7">
@@ -1095,13 +1095,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>3151</v>
+        <v>4108</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>7367</v>
+        <v>7498</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>8652</v>
+        <v>8737</v>
       </c>
     </row>
     <row r="8">
@@ -1153,10 +1153,10 @@
         <v>0</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>1328</v>
+        <v>1307</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>1402</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="11">
@@ -1167,13 +1167,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>3465</v>
+        <v>5768</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>7015</v>
+        <v>7271</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>8319</v>
+        <v>9014</v>
       </c>
     </row>
     <row r="12">
@@ -1222,13 +1222,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>836</v>
+        <v>811</v>
       </c>
       <c r="D14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>1377</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="15">
@@ -1239,13 +1239,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>7857</v>
+        <v>7860</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>3120</v>
+        <v>3533</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>8588</v>
+        <v>8224</v>
       </c>
     </row>
     <row r="16">
@@ -1294,13 +1294,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>2342</v>
+        <v>2234</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>607</v>
+        <v>618</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>4186</v>
+        <v>3957</v>
       </c>
     </row>
     <row r="19">
@@ -1311,13 +1311,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>11493</v>
+        <v>10680</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>5899</v>
+        <v>5738</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>13815</v>
+        <v>14288</v>
       </c>
     </row>
     <row r="20">
@@ -1366,13 +1366,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>721</v>
+        <v>797</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>1868</v>
+        <v>1952</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>3797</v>
+        <v>3719</v>
       </c>
     </row>
     <row r="23">
@@ -1383,13 +1383,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>6894</v>
+        <v>7706</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>8521</v>
+        <v>8495</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>12635</v>
+        <v>12349</v>
       </c>
     </row>
     <row r="24">
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>476</v>
+        <v>484</v>
       </c>
     </row>
     <row r="27">
@@ -1455,13 +1455,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>4714</v>
+        <v>4765</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>2662</v>
+        <v>2542</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>5770</v>
+        <v>5709</v>
       </c>
     </row>
     <row r="28">
@@ -1510,13 +1510,13 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>8825</v>
+        <v>9036</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>9110</v>
+        <v>9174</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>20996</v>
+        <v>20806</v>
       </c>
     </row>
     <row r="31">
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>22093</v>
+        <v>22097</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>21819</v>
+        <v>21371</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>38922</v>
+        <v>38821</v>
       </c>
     </row>
     <row r="32">
